--- a/cloud/azure/cloud-azure_進捗管理.xlsx
+++ b/cloud/azure/cloud-azure_進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzuki.ryo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4B3EC-7829-4941-803A-078AEC68F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15123A98-1BCC-43E0-9C83-CD1CAB351363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="4" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
   </bookViews>
   <sheets>
     <sheet name="取り扱い" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -312,22 +312,7 @@
       <t>オコナ</t>
     </rPh>
     <rPh sb="152" eb="154">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="283" eb="285">
-      <t>カイシ</t>
+      <t>カンリョウサクセイガクシュウヨカンリョウカイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,12 +356,145 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Azure Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure Files</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure Blobs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure Disks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure Queues</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure Tables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>block, append, page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Standard general-purpose v2</t>
+  </si>
+  <si>
+    <t>Premium block blobs</t>
+  </si>
+  <si>
+    <t>Premium file shares</t>
+  </si>
+  <si>
+    <t>Premium page blobs</t>
+  </si>
+  <si>
+    <t>冗長オプション</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA-GRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GZRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA-GZRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル冗長ストレージ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geo冗長ストレージ</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取りアクセス-geo冗長ストレージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーン冗長ストレージ</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geoゾーン冗長ストレージ</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取りアクセス-geoゾーン冗長ストレージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,21 +519,79 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -427,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +618,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,8 +718,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4560</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>212213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,13 +752,170 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97419CC-2923-3871-A083-5A3C405BE926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7645400" y="2305050"/>
+          <a:ext cx="3873500" cy="1225550"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22308"/>
+            <a:gd name="adj2" fmla="val -67033"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AzureStorage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サービスを利用するためには、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージアカウントと呼ばれるアカウントを作成する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージアカウントに紐付ける形で各種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AzureStorage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サービスを利用する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2325832</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B495BB-CDED-FEF0-3F37-34EFAA37C8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4618182" y="3948545"/>
+          <a:ext cx="10961832" cy="3239077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -599,7 +953,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -705,7 +1059,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA1EB32-4783-494E-8AE3-A125C57961E8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -950,7 +1304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D570A86-9104-4E99-B068-ED7B05C5BDDE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1077,14 +1433,123 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A28A8-AD11-4431-B37D-DFB0AA3F153C}">
-  <dimension ref="A1"/>
+  <dimension ref="H3:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.08203125" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="8:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="8:14" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="M9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/cloud/azure/cloud-azure_進捗管理.xlsx
+++ b/cloud/azure/cloud-azure_進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzuki.ryo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15123A98-1BCC-43E0-9C83-CD1CAB351363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB8C428-E598-4B54-BB8A-ECC11D622395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="4" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
   </bookViews>
   <sheets>
     <sheet name="取り扱い" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -486,6 +486,174 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOBストレージアクセス層</t>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コールドストレージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーカイブアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頻繁にアクセスされるデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスされる頻度が低く、30日以上格納されるデータ</t>
+    <rPh sb="7" eb="9">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス頻度が低く、90日以上保管されるデータ</t>
+    <rPh sb="4" eb="6">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニチイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほとんどアクセスされず、180日以上保管され、待ち時間の要件が柔軟なデータ</t>
+    <rPh sb="15" eb="18">
+      <t>ニチイジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュウナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトの画像</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客用請求書</t>
+    <rPh sb="0" eb="3">
+      <t>コキャクヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セイキュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コース-Azure ストレージ アカウントについて説明する、
+Azure Storage の冗長性について説明する、
+Azure Storage サービスについて説明する
+を完了した</t>
+    <rPh sb="88" eb="90">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージアカウントの種類、ストレージの種類、冗長性、それぞれの使い方について理解を深めた</t>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジョウチョウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は演習
+https://learn.microsoft.com/ja-jp/training/modules/describe-azure-storage-services/5-exercise-create-storage-blob</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,7 +885,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292101</xdr:colOff>
+      <xdr:colOff>287340</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>212213</xdr:rowOff>
     </xdr:to>
@@ -857,9 +1025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2325832</xdr:colOff>
+      <xdr:colOff>2321072</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>29440</xdr:rowOff>
+      <xdr:rowOff>35792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,9 +1081,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -953,7 +1121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1059,7 +1227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1201,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D570A86-9104-4E99-B068-ED7B05C5BDDE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1375,6 +1543,23 @@
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1433,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A28A8-AD11-4431-B37D-DFB0AA3F153C}">
-  <dimension ref="H3:N10"/>
+  <dimension ref="H3:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1446,12 +1631,15 @@
     <col min="11" max="11" width="50.08203125" customWidth="1"/>
     <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="8:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="8:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1466,8 +1654,17 @@
         <v>44</v>
       </c>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="8:14" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="8:18" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1481,8 +1678,17 @@
       <c r="N5" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1498,8 +1704,17 @@
       <c r="N6" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1513,8 +1728,15 @@
       <c r="N7" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" s="6" t="s">
         <v>36</v>
       </c>
@@ -1528,8 +1750,17 @@
       <c r="N8" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1541,7 +1772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M10" s="5" t="s">
         <v>50</v>
       </c>

--- a/cloud/azure/cloud-azure_進捗管理.xlsx
+++ b/cloud/azure/cloud-azure_進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzuki.ryo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB8C428-E598-4B54-BB8A-ECC11D622395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711D911-BACE-4AA0-B71C-D5269B73E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
   </bookViews>
   <sheets>
     <sheet name="取り扱い" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -647,14 +647,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次は演習
-https://learn.microsoft.com/ja-jp/training/modules/describe-azure-storage-services/5-exercise-create-storage-blob</t>
+    <t>・ストレージアカウントの作成方法を学んだ
+・コンテナの作成方法を学んだ
+・冗長性ごとの持続性を一応覚えておく</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ジョウチョウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ジゾクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次ここ
+https://learn.microsoft.com/ja-jp/training/paths/azure-fundamentals-describe-azure-architecture-services/</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>エンシュウ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026/1/7
+2026/1/8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D570A86-9104-4E99-B068-ED7B05C5BDDE}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1549,8 +1590,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>46029</v>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
@@ -1558,8 +1599,11 @@
       <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cloud/azure/cloud-azure_進捗管理.xlsx
+++ b/cloud/azure/cloud-azure_進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzuki.ryo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711D911-BACE-4AA0-B71C-D5269B73E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D9E9B-2AA7-4B02-8BCB-A8D392D2B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -693,6 +693,38 @@
   <si>
     <t>2026/1/7
 2026/1/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Azure の ID、アクセス、セキュリティについて説明するを完了した
+</t>
+    <rPh sb="32" eb="34">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・EntraID、Entra Domain ServicesなどAzureのディレクトリサービスについて理解を深めた
+・条件付きアクセス、ロールベースのアクセス制御について理解を深めた
+</t>
+    <rPh sb="52" eb="54">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1511,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D570A86-9104-4E99-B068-ED7B05C5BDDE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1604,6 +1636,20 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
